--- a/ScreenTimeZihaoHan.xlsx
+++ b/ScreenTimeZihaoHan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanzihao/Desktop/biostat620/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanzihao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D309C3E2-C6D7-4541-9257-CF763D9F49FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21666129-F3D9-DC4A-A402-DEFEDD85DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="1320" windowWidth="28240" windowHeight="17440"/>
+    <workbookView xWindow="380" yWindow="1320" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biostat620ScreenTimeZihaoHan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -367,15 +367,27 @@
   </si>
   <si>
     <t>Pickup.1st_EST</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>procrastination</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_hour</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="176" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -970,7 +982,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,9 +1044,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1072,7 +1084,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1178,7 +1190,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1320,27 +1332,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1362,8 +1377,17 @@
       <c r="G1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>45284</v>
       </c>
@@ -1379,8 +1403,17 @@
       <c r="G2" s="1">
         <v>0.48055555555555557</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>32.9</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>45285</v>
       </c>
@@ -1396,8 +1429,17 @@
       <c r="G3" s="1">
         <v>0.53541666666666665</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>32.9</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>45286</v>
       </c>
@@ -1413,8 +1455,17 @@
       <c r="G4" s="1">
         <v>0.51944444444444449</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>32.9</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>45287</v>
       </c>
@@ -1430,8 +1481,17 @@
       <c r="G5" s="1">
         <v>0.50069444444444444</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>32.9</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>45288</v>
       </c>
@@ -1447,8 +1507,17 @@
       <c r="G6" s="1">
         <v>0.4770833333333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6">
+        <v>32.9</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>45289</v>
       </c>
@@ -1464,8 +1533,17 @@
       <c r="G7" s="1">
         <v>0.53333333333333333</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>32.9</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>45290</v>
       </c>
@@ -1481,8 +1559,17 @@
       <c r="G8" s="1">
         <v>0.50555555555555554</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="I8">
+        <v>32.9</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>45291</v>
       </c>
@@ -1498,8 +1585,17 @@
       <c r="G9" s="1">
         <v>0.51250000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9">
+        <v>32.9</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>45292</v>
       </c>
@@ -1515,8 +1611,17 @@
       <c r="G10" s="1">
         <v>0.4916666666666667</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>32.9</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>45293</v>
       </c>
@@ -1532,8 +1637,17 @@
       <c r="G11" s="1">
         <v>0.50694444444444442</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>32.9</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>45294</v>
       </c>
@@ -1549,8 +1663,17 @@
       <c r="G12" s="1">
         <v>0.49027777777777781</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>32</v>
+      </c>
+      <c r="I12">
+        <v>32.9</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>45295</v>
       </c>
@@ -1566,8 +1689,17 @@
       <c r="G13" s="1">
         <v>0.50277777777777777</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>32</v>
+      </c>
+      <c r="I13">
+        <v>32.9</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>45296</v>
       </c>
@@ -1583,8 +1715,17 @@
       <c r="G14" s="1">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>32</v>
+      </c>
+      <c r="I14">
+        <v>32.9</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>45297</v>
       </c>
@@ -1600,8 +1741,17 @@
       <c r="G15" s="1">
         <v>0.53125</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>32</v>
+      </c>
+      <c r="I15">
+        <v>32.9</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>45298</v>
       </c>
@@ -1617,8 +1767,17 @@
       <c r="G16" s="1">
         <v>0.54999999999999993</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>32</v>
+      </c>
+      <c r="I16">
+        <v>32.9</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>45299</v>
       </c>
@@ -1634,8 +1793,17 @@
       <c r="G17" s="1">
         <v>0.48680555555555555</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17">
+        <v>32.9</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>45300</v>
       </c>
@@ -1651,8 +1819,17 @@
       <c r="G18" s="1">
         <v>0.52361111111111114</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>32</v>
+      </c>
+      <c r="I18">
+        <v>32.9</v>
+      </c>
+      <c r="J18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>45301</v>
       </c>
@@ -1668,8 +1845,17 @@
       <c r="G19" s="1">
         <v>0.45208333333333334</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>32</v>
+      </c>
+      <c r="I19">
+        <v>32.9</v>
+      </c>
+      <c r="J19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>45302</v>
       </c>
@@ -1685,8 +1871,17 @@
       <c r="G20" s="1">
         <v>0.27083333333333331</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>32</v>
+      </c>
+      <c r="I20">
+        <v>32.9</v>
+      </c>
+      <c r="J20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>45303</v>
       </c>
@@ -1702,8 +1897,17 @@
       <c r="G21" s="1">
         <v>0.43055555555555558</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>32</v>
+      </c>
+      <c r="I21">
+        <v>32.9</v>
+      </c>
+      <c r="J21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>45304</v>
       </c>
@@ -1719,8 +1923,17 @@
       <c r="G22" s="1">
         <v>0.54583333333333328</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>32</v>
+      </c>
+      <c r="I22">
+        <v>32.9</v>
+      </c>
+      <c r="J22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>45305</v>
       </c>
@@ -1736,8 +1949,17 @@
       <c r="G23" s="1">
         <v>0.42291666666666666</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="I23">
+        <v>32.9</v>
+      </c>
+      <c r="J23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>45306</v>
       </c>
@@ -1753,8 +1975,17 @@
       <c r="G24" s="1">
         <v>0.54722222222222217</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>32</v>
+      </c>
+      <c r="I24">
+        <v>32.9</v>
+      </c>
+      <c r="J24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>45307</v>
       </c>
@@ -1770,8 +2001,17 @@
       <c r="G25" s="1">
         <v>0.27083333333333331</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>32</v>
+      </c>
+      <c r="I25">
+        <v>32.9</v>
+      </c>
+      <c r="J25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>45308</v>
       </c>
@@ -1787,8 +2027,17 @@
       <c r="G26" s="1">
         <v>0.42777777777777781</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>32</v>
+      </c>
+      <c r="I26">
+        <v>32.9</v>
+      </c>
+      <c r="J26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>45309</v>
       </c>
@@ -1804,8 +2053,17 @@
       <c r="G27" s="1">
         <v>0.27083333333333331</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>32</v>
+      </c>
+      <c r="I27">
+        <v>32.9</v>
+      </c>
+      <c r="J27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>45310</v>
       </c>
@@ -1821,8 +2079,17 @@
       <c r="G28" s="1">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>32</v>
+      </c>
+      <c r="I28">
+        <v>32.9</v>
+      </c>
+      <c r="J28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>45311</v>
       </c>
@@ -1838,8 +2105,17 @@
       <c r="G29" s="1">
         <v>0.42291666666666666</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>32</v>
+      </c>
+      <c r="I29">
+        <v>32.9</v>
+      </c>
+      <c r="J29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>45312</v>
       </c>
@@ -1855,8 +2131,17 @@
       <c r="G30" s="1">
         <v>0.42152777777777778</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>32</v>
+      </c>
+      <c r="I30">
+        <v>32.9</v>
+      </c>
+      <c r="J30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>45313</v>
       </c>
@@ -1872,8 +2157,17 @@
       <c r="G31" s="1">
         <v>0.27083333333333331</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>32</v>
+      </c>
+      <c r="I31">
+        <v>32.9</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>45314</v>
       </c>
@@ -1889,8 +2183,17 @@
       <c r="G32" s="1">
         <v>0.24652777777777779</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>32</v>
+      </c>
+      <c r="I32">
+        <v>32.9</v>
+      </c>
+      <c r="J32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>45315</v>
       </c>
@@ -1906,8 +2209,17 @@
       <c r="G33" s="1">
         <v>0.28819444444444448</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33">
+        <v>32.9</v>
+      </c>
+      <c r="J33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>45316</v>
       </c>
@@ -1923,8 +2235,17 @@
       <c r="G34" s="1">
         <v>0.28819444444444448</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>32</v>
+      </c>
+      <c r="I34">
+        <v>32.9</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>45317</v>
       </c>
@@ -1940,8 +2261,17 @@
       <c r="G35" s="1">
         <v>0.42638888888888887</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>32</v>
+      </c>
+      <c r="I35">
+        <v>32.9</v>
+      </c>
+      <c r="J35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>45318</v>
       </c>
@@ -1957,8 +2287,17 @@
       <c r="G36" s="1">
         <v>0.3840277777777778</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>32</v>
+      </c>
+      <c r="I36">
+        <v>32.9</v>
+      </c>
+      <c r="J36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>45319</v>
       </c>
@@ -1974,8 +2313,17 @@
       <c r="G37" s="1">
         <v>0.40277777777777773</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>32</v>
+      </c>
+      <c r="I37">
+        <v>32.9</v>
+      </c>
+      <c r="J37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>45320</v>
       </c>
@@ -1991,8 +2339,17 @@
       <c r="G38" s="1">
         <v>0.24305555555555555</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>32</v>
+      </c>
+      <c r="I38">
+        <v>32.9</v>
+      </c>
+      <c r="J38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>45321</v>
       </c>
@@ -2008,8 +2365,17 @@
       <c r="G39" s="1">
         <v>0.29166666666666669</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>32</v>
+      </c>
+      <c r="I39">
+        <v>32.9</v>
+      </c>
+      <c r="J39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>45322</v>
       </c>
@@ -2025,8 +2391,17 @@
       <c r="G40" s="1">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>32</v>
+      </c>
+      <c r="I40">
+        <v>32.9</v>
+      </c>
+      <c r="J40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>45323</v>
       </c>
@@ -2042,8 +2417,17 @@
       <c r="G41" s="1">
         <v>0.2902777777777778</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>32</v>
+      </c>
+      <c r="I41">
+        <v>32.9</v>
+      </c>
+      <c r="J41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>45324</v>
       </c>
@@ -2059,8 +2443,17 @@
       <c r="G42" s="1">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>32</v>
+      </c>
+      <c r="I42">
+        <v>32.9</v>
+      </c>
+      <c r="J42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>45325</v>
       </c>
@@ -2076,8 +2469,17 @@
       <c r="G43" s="1">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>32</v>
+      </c>
+      <c r="I43">
+        <v>32.9</v>
+      </c>
+      <c r="J43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>45326</v>
       </c>
@@ -2093,8 +2495,17 @@
       <c r="G44" s="1">
         <v>0.28888888888888892</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>32</v>
+      </c>
+      <c r="I44">
+        <v>32.9</v>
+      </c>
+      <c r="J44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
         <v>45327</v>
       </c>
@@ -2110,8 +2521,17 @@
       <c r="G45" s="1">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>32</v>
+      </c>
+      <c r="I45">
+        <v>32.9</v>
+      </c>
+      <c r="J45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="2">
         <v>45328</v>
       </c>
@@ -2127,8 +2547,17 @@
       <c r="G46" s="1">
         <v>0.30555555555555552</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>32</v>
+      </c>
+      <c r="I46">
+        <v>32.9</v>
+      </c>
+      <c r="J46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="2">
         <v>45329</v>
       </c>
@@ -2144,8 +2573,17 @@
       <c r="G47" s="1">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>32</v>
+      </c>
+      <c r="I47">
+        <v>32.9</v>
+      </c>
+      <c r="J47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="2">
         <v>45330</v>
       </c>
@@ -2161,8 +2599,17 @@
       <c r="G48" s="1">
         <v>0.26458333333333334</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>32</v>
+      </c>
+      <c r="I48">
+        <v>32.9</v>
+      </c>
+      <c r="J48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="2">
         <v>45331</v>
       </c>
@@ -2178,8 +2625,17 @@
       <c r="G49" s="1">
         <v>0.39166666666666666</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>32</v>
+      </c>
+      <c r="I49">
+        <v>32.9</v>
+      </c>
+      <c r="J49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="2">
         <v>45332</v>
       </c>
@@ -2195,8 +2651,17 @@
       <c r="G50" s="1">
         <v>0.52222222222222225</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>32</v>
+      </c>
+      <c r="I50">
+        <v>32.9</v>
+      </c>
+      <c r="J50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="2">
         <v>45333</v>
       </c>
@@ -2212,8 +2677,17 @@
       <c r="G51" s="1">
         <v>0.38611111111111113</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>32</v>
+      </c>
+      <c r="I51">
+        <v>32.9</v>
+      </c>
+      <c r="J51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="2">
         <v>45334</v>
       </c>
@@ -2229,8 +2703,17 @@
       <c r="G52" s="1">
         <v>0.46319444444444446</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>32</v>
+      </c>
+      <c r="I52">
+        <v>32.9</v>
+      </c>
+      <c r="J52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="2">
         <v>45335</v>
       </c>
@@ -2245,6 +2728,15 @@
       </c>
       <c r="G53" s="1">
         <v>0.3125</v>
+      </c>
+      <c r="H53">
+        <v>32</v>
+      </c>
+      <c r="I53">
+        <v>32.9</v>
+      </c>
+      <c r="J53">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ScreenTimeZihaoHan.xlsx
+++ b/ScreenTimeZihaoHan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanzihao/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21492\Desktop\BIOSTAT620\620_project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21666129-F3D9-DC4A-A402-DEFEDD85DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D82EA9A-8525-4728-9807-EBECEC9192CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="1320" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biostat620ScreenTimeZihaoHan" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>course_hour</t>
+    <t>course_hours</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1044,9 +1044,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1084,7 +1084,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1190,7 +1190,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1332,7 +1332,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1343,16 +1343,16 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="7" max="7" width="15.69140625" customWidth="1"/>
+    <col min="8" max="8" width="15.15234375" customWidth="1"/>
+    <col min="9" max="9" width="13.4609375" customWidth="1"/>
+    <col min="10" max="10" width="13.3046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
